--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9.872774846510282E-06</v>
+        <v>9.858192104410727E-06</v>
       </c>
       <c r="E2">
-        <v>9.872774846510282E-06</v>
+        <v>9.858192104410727E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7457709583081626</v>
+        <v>0.745663216312449</v>
       </c>
       <c r="E3">
-        <v>0.7457709583081626</v>
+        <v>0.745663216312449</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.002926552703240617</v>
+        <v>0.002926450150719163</v>
       </c>
       <c r="E4">
-        <v>0.002926552703240617</v>
+        <v>0.002926450150719163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.115238811294748E-11</v>
+        <v>1.117550847086308E-11</v>
       </c>
       <c r="E5">
-        <v>1.115238811294748E-11</v>
+        <v>1.117550847086308E-11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4025437584690763</v>
+        <v>0.4030865282386907</v>
       </c>
       <c r="E6">
-        <v>0.4025437584690763</v>
+        <v>0.4030865282386907</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9901392852188674</v>
+        <v>0.8322219847239448</v>
       </c>
       <c r="E7">
-        <v>0.009860714781132596</v>
+        <v>0.1677780152760552</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9905121145524741</v>
+        <v>3.249623138112965E-06</v>
       </c>
       <c r="E8">
-        <v>0.009487885447525879</v>
+        <v>0.9999967503768619</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9896468993449238</v>
+        <v>2.234674711920502E-08</v>
       </c>
       <c r="E9">
-        <v>0.01035310065507622</v>
+        <v>0.9999999776532529</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9899170626763591</v>
+        <v>2.147287265778115E-06</v>
       </c>
       <c r="E10">
-        <v>0.01008293732364085</v>
+        <v>0.9999978527127342</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9902729339679893</v>
+        <v>0.2254630970790973</v>
       </c>
       <c r="E11">
-        <v>0.009727066032010678</v>
+        <v>0.7745369029209027</v>
       </c>
       <c r="F11">
-        <v>0.1937292963266373</v>
+        <v>4.6866135597229</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>4.727643761529178E-08</v>
+        <v>4.70266112855119E-08</v>
       </c>
       <c r="E12">
-        <v>4.727643761529178E-08</v>
+        <v>4.70266112855119E-08</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9889947484451276</v>
+        <v>0.9890497261575523</v>
       </c>
       <c r="E13">
-        <v>0.9889947484451276</v>
+        <v>0.9890497261575523</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.003168235970566717</v>
+        <v>0.003167714919631714</v>
       </c>
       <c r="E14">
-        <v>0.003168235970566717</v>
+        <v>0.003167714919631714</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>9.421166342173257E-17</v>
+        <v>9.661978871129893E-17</v>
       </c>
       <c r="E15">
-        <v>9.421166342173257E-17</v>
+        <v>9.661978871129893E-17</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1057765137221795</v>
+        <v>0.1058022678936759</v>
       </c>
       <c r="E16">
-        <v>0.1057765137221795</v>
+        <v>0.1058022678936759</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9984755464406869</v>
+        <v>0.8871086094102821</v>
       </c>
       <c r="E17">
-        <v>0.001524453559313077</v>
+        <v>0.1128913905897179</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9985524056233168</v>
+        <v>3.524310740347391E-10</v>
       </c>
       <c r="E18">
-        <v>0.001447594376683181</v>
+        <v>0.9999999996475689</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9981193251762743</v>
+        <v>2.114786682176066E-11</v>
       </c>
       <c r="E19">
-        <v>0.00188067482372567</v>
+        <v>0.9999999999788521</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.998186499738144</v>
+        <v>1.353072377516494E-09</v>
       </c>
       <c r="E20">
-        <v>0.001813500261856005</v>
+        <v>0.9999999986469276</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9983317829949691</v>
+        <v>0.04889888223341513</v>
       </c>
       <c r="E21">
-        <v>0.001668217005030947</v>
+        <v>0.9511011177665849</v>
       </c>
       <c r="F21">
-        <v>0.4632694721221924</v>
+        <v>7.453371524810791</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
